--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529A5166-5CD7-664B-8C38-1EF14C76E1FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5EBEB-897F-3B45-909C-C44440DEBFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>prm2_resnet50</t>
+  </si>
+  <si>
+    <t>temp2</t>
+  </si>
+  <si>
+    <t>prm3_resnet50</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,7 +109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,9 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,13 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="38.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
@@ -451,28 +467,29 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -529,7 +546,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5">
         <v>16</v>
       </c>
@@ -550,6 +567,30 @@
       </c>
       <c r="I5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A5EBEB-897F-3B45-909C-C44440DEBFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E50FBF-F2D9-744D-B1DF-19EDB2E92843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -85,16 +85,44 @@
   </si>
   <si>
     <t>prm3_resnet50</t>
+  </si>
+  <si>
+    <t>Normalize</t>
+  </si>
+  <si>
+    <t>NAN after epoch 5</t>
+  </si>
+  <si>
+    <t>batchsize</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>prm2_resnet50_bak(loss_nan_after_epoch5)</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>std+1e-7 not 1e-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -128,14 +156,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,149 +501,461 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="38.5" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1">
         <v>76.709999999999994</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
+    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1">
         <v>76.67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1">
+        <v>64</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="1">
+        <v>64</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6">
+    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" s="1">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" s="1">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E50FBF-F2D9-744D-B1DF-19EDB2E92843}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B53EA-3729-5146-9655-DD9A6DD59A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -105,14 +105,23 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>std+1e-7 not 1e-5</t>
+    <t>temp3</t>
+  </si>
+  <si>
+    <t>prm4_resnet50</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+  </si>
+  <si>
+    <t>std+1e-7 not 1e-5 (replace line 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,8 +136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +152,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,11 +190,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,14 +515,14 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="38.5" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="20" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -529,7 +537,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="20" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -565,7 +573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>16</v>
@@ -588,7 +596,7 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="1">
@@ -598,7 +606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="20" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>16</v>
@@ -621,7 +629,7 @@
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1">
@@ -631,8 +639,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>16</v>
       </c>
@@ -657,18 +665,17 @@
       <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
@@ -693,13 +700,18 @@
       <c r="I6" s="1">
         <v>64</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="L6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -729,20 +741,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="1">
+        <v>64</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -755,7 +787,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -768,7 +800,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -781,7 +813,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -794,7 +826,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -807,7 +839,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -820,7 +852,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -833,7 +865,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -846,7 +878,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="20" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -859,7 +891,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="20" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -872,7 +904,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="20" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -885,7 +917,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="20" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -898,7 +930,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="20" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -911,7 +943,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="20" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -924,38 +956,38 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="20" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" customHeight="1"/>
+    <row r="25" spans="1:11" ht="20" customHeight="1">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="20" customHeight="1"/>
+    <row r="27" spans="1:11" ht="20" customHeight="1"/>
+    <row r="28" spans="1:11" ht="20" customHeight="1"/>
+    <row r="29" spans="1:11" ht="20" customHeight="1"/>
+    <row r="30" spans="1:11" ht="20" customHeight="1"/>
+    <row r="31" spans="1:11" ht="20" customHeight="1"/>
+    <row r="32" spans="1:11" ht="20" customHeight="1"/>
+    <row r="33" ht="20" customHeight="1"/>
+    <row r="34" ht="20" customHeight="1"/>
+    <row r="35" ht="20" customHeight="1"/>
+    <row r="36" ht="20" customHeight="1"/>
+    <row r="37" ht="20" customHeight="1"/>
+    <row r="38" ht="20" customHeight="1"/>
+    <row r="39" ht="20" customHeight="1"/>
+    <row r="40" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B53EA-3729-5146-9655-DD9A6DD59A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C48620-0CBA-FB42-9E30-25ADAA5B7A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>std+1e-7 not 1e-5 (replace line 5)</t>
+  </si>
+  <si>
+    <t>prm5_resnet50</t>
+  </si>
+  <si>
+    <t>temp4</t>
+  </si>
+  <si>
+    <t>too lower; conv slow</t>
   </si>
 </sst>
 </file>
@@ -512,12 +521,12 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="38.5" customWidth="1"/>
     <col min="12" max="12" width="41.33203125" customWidth="1"/>
   </cols>
@@ -769,23 +778,45 @@
       <c r="I8" s="1">
         <v>64</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5">
+        <v>64</v>
+      </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
       <c r="A10" s="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C48620-0CBA-FB42-9E30-25ADAA5B7A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897BC34-6AEF-384D-84B6-4DD79CAA34DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -124,6 +124,18 @@
   </si>
   <si>
     <t>too lower; conv slow</t>
+  </si>
+  <si>
+    <t>normalize(similarity)+position</t>
+  </si>
+  <si>
+    <t>prm6_resnet50</t>
+  </si>
+  <si>
+    <t>Nan after epoch 8</t>
+  </si>
+  <si>
+    <t>Nan after epoch 4</t>
   </si>
 </sst>
 </file>
@@ -521,7 +533,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,9 +763,6 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -813,23 +822,50 @@
       <c r="I9" s="5">
         <v>64</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="5">
+        <v>64</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
       <c r="A11" s="1"/>
@@ -1021,5 +1057,6 @@
     <row r="40" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7897BC34-6AEF-384D-84B6-4DD79CAA34DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919023E-E9CB-7B46-AED3-81CDB550B49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Nan after epoch 4</t>
+  </si>
+  <si>
+    <t>prm_16x1_l1norm_resnet50</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -795,9 +798,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -822,7 +823,7 @@
       <c r="I9" s="5">
         <v>64</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -830,9 +831,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A10" s="7"/>
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -857,7 +856,7 @@
       <c r="I10" s="5">
         <v>64</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="5" t="s">
@@ -868,30 +867,71 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="A11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="5">
+        <v>64</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="5">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="5">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="5">
+        <v>64</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A919023E-E9CB-7B46-AED3-81CDB550B49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928EBF8-A4DD-4842-80E9-772C785D064A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -111,9 +111,6 @@
     <t>prm4_resnet50</t>
   </si>
   <si>
-    <t>RUNNING</t>
-  </si>
-  <si>
     <t>std+1e-7 not 1e-5 (replace line 5)</t>
   </si>
   <si>
@@ -139,6 +136,18 @@
   </si>
   <si>
     <t>prm_16x1_l1norm_resnet50</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>prm7_resnet50</t>
+  </si>
+  <si>
+    <t>fixed normalization to line2</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -206,11 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -219,6 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +558,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -664,7 +686,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="20" customHeight="1">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B5" s="1">
         <v>16</v>
       </c>
@@ -697,9 +721,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="20" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>16</v>
       </c>
@@ -724,18 +746,18 @@
       <c r="I6" s="1">
         <v>64</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="8">
+        <v>76.22</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -760,12 +782,17 @@
       <c r="I7" s="1">
         <v>64</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="8">
+        <v>76.55</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -791,14 +818,16 @@
         <v>64</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20" customHeight="1">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B9" s="5">
         <v>4</v>
       </c>
@@ -818,20 +847,22 @@
         <v>16</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="5">
         <v>64</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20" customHeight="1">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B10" s="5">
         <v>16</v>
       </c>
@@ -857,18 +888,18 @@
         <v>64</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
+      <c r="A11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>16</v>
@@ -886,51 +917,53 @@
         <v>10</v>
       </c>
       <c r="G11" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I11" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5">
-        <v>16</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9">
         <v>32</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="5">
-        <v>64</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>33</v>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="10">
+        <v>48</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3928EBF8-A4DD-4842-80E9-772C785D064A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032D13E-5500-A744-8FAB-C65AEE887B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>prm8_resnet50</t>
+  </si>
+  <si>
+    <t>remove position</t>
   </si>
 </sst>
 </file>
@@ -558,7 +564,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -968,16 +974,37 @@
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="9">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10">
+        <v>48</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
       <c r="A14" s="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F032D13E-5500-A744-8FAB-C65AEE887B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C218D9D2-F0CC-C94E-85F6-4D00F2489C2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -154,13 +154,16 @@
   </si>
   <si>
     <t>remove position</t>
+  </si>
+  <si>
+    <t>prm_8x8_l1norm_resnet50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +182,13 @@
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -247,6 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,7 +575,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -973,7 +984,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="20" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="9">
         <v>16</v>
       </c>
@@ -993,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I13" s="10">
         <v>48</v>
@@ -1007,17 +1020,37 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="20" customHeight="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="A14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>8</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>32</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="10">
+        <v>48</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
       <c r="A15" s="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C218D9D2-F0CC-C94E-85F6-4D00F2489C2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA3A5A5-55F8-9E4F-89F1-DDDCD290774F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>prm_8x8_l1norm_resnet50</t>
+  </si>
+  <si>
+    <t>prm9_resnt50</t>
+  </si>
+  <si>
+    <t>add e^(-x) to Distance</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -973,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="I12" s="10">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9" t="s">
@@ -1009,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="10">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J13" s="9"/>
       <c r="K13" s="9" t="s">
@@ -1045,7 +1051,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="10">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="1" t="s">
@@ -1053,17 +1059,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="A15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="5">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="5">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="5">
+        <v>32</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="20" customHeight="1">
       <c r="A16" s="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA3A5A5-55F8-9E4F-89F1-DDDCD290774F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4994456D-1E3B-544C-8F0E-6277C3DACE56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -156,20 +156,35 @@
     <t>remove position</t>
   </si>
   <si>
-    <t>prm_8x8_l1norm_resnet50</t>
-  </si>
-  <si>
     <t>prm9_resnt50</t>
   </si>
   <si>
     <t>add e^(-x) to Distance</t>
+  </si>
+  <si>
+    <t>prms_8x8_l1norm_resnet50</t>
+  </si>
+  <si>
+    <t>prm10_resnet50</t>
+  </si>
+  <si>
+    <t>Based on prm9, + similarity*sig(Distance)</t>
+  </si>
+  <si>
+    <t>100/30</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>60/15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +207,13 @@
     <font>
       <sz val="12"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -264,6 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,25 +601,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="38.5" customWidth="1"/>
-    <col min="12" max="12" width="41.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="38.5" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" customHeight="1">
+    <row r="1" spans="1:13" ht="20" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -605,509 +628,582 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20" customHeight="1">
+    <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>16</v>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="1">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>76.709999999999994</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20" customHeight="1">
+    <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>16</v>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
         <v>32</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>76.67</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20" customHeight="1">
+    <row r="5" spans="1:13" ht="20" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1">
-        <v>16</v>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="1">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>64</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20" customHeight="1">
+    <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="7"/>
-      <c r="B6" s="1">
-        <v>16</v>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>64</v>
       </c>
-      <c r="J6" s="8">
+      <c r="K6" s="8">
         <v>76.22</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20" customHeight="1">
+    <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="7"/>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>64</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="8">
         <v>76.55</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20" customHeight="1">
+    <row r="8" spans="1:13" ht="20" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>64</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20" customHeight="1">
+    <row r="9" spans="1:13" ht="20" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="5">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5">
+        <v>16</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>64</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20" customHeight="1">
+    <row r="10" spans="1:13" ht="20" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="5">
-        <v>16</v>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="5">
+        <v>16</v>
+      </c>
+      <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5">
-        <v>16</v>
-      </c>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5">
+        <v>16</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>64</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20" customHeight="1">
+    <row r="11" spans="1:13" ht="20" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1">
-        <v>16</v>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>32</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20" customHeight="1">
+    <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="9">
-        <v>16</v>
+      <c r="B12" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C12" s="9">
+        <v>16</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9">
         <v>32</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>32</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="9">
+        <v>76.72</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20" customHeight="1">
+    <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9">
-        <v>16</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
         <v>32</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="5">
         <v>32</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="1">
+        <v>76.77</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20" customHeight="1">
+    <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
+      <c r="D14" s="1">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
         <v>32</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J14" s="5">
         <v>32</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20" customHeight="1">
+      <c r="K14" s="1">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20" customHeight="1">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5">
-        <v>16</v>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="5">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5">
         <v>32</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>32</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="5">
+        <v>76.739999999999995</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
         <v>44</v>
       </c>
-      <c r="L15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20" customHeight="1">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="20" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5">
+        <v>16</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="5">
+        <v>64</v>
+      </c>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="20" customHeight="1">
+      <c r="L16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1119,8 +1215,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="20" customHeight="1">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="20" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1132,8 +1229,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="20" customHeight="1">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="20" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1145,8 +1243,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="20" customHeight="1">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="20" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1158,8 +1257,9 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="20" customHeight="1">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="20" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1171,8 +1271,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="20" customHeight="1">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="20" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1184,8 +1285,9 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="20" customHeight="1">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="20" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1197,18 +1299,19 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" customHeight="1"/>
-    <row r="25" spans="1:11" ht="20" customHeight="1">
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="20" customHeight="1"/>
-    <row r="27" spans="1:11" ht="20" customHeight="1"/>
-    <row r="28" spans="1:11" ht="20" customHeight="1"/>
-    <row r="29" spans="1:11" ht="20" customHeight="1"/>
-    <row r="30" spans="1:11" ht="20" customHeight="1"/>
-    <row r="31" spans="1:11" ht="20" customHeight="1"/>
-    <row r="32" spans="1:11" ht="20" customHeight="1"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="20" customHeight="1"/>
+    <row r="25" spans="1:12" ht="20" customHeight="1">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="20" customHeight="1"/>
+    <row r="27" spans="1:12" ht="20" customHeight="1"/>
+    <row r="28" spans="1:12" ht="20" customHeight="1"/>
+    <row r="29" spans="1:12" ht="20" customHeight="1"/>
+    <row r="30" spans="1:12" ht="20" customHeight="1"/>
+    <row r="31" spans="1:12" ht="20" customHeight="1"/>
+    <row r="32" spans="1:12" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4994456D-1E3B-544C-8F0E-6277C3DACE56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6170E2C-A09C-D249-8432-637E0A9F6973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>60/15</t>
+  </si>
+  <si>
+    <t>prm11_resnet50</t>
+  </si>
+  <si>
+    <t>prm12_resnet50</t>
+  </si>
+  <si>
+    <t>x+Conv[sig(similarity)*key]</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>se_resnet50</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -287,6 +302,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +622,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1008,9 +1026,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1049,9 +1065,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A13" s="12"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1090,9 +1104,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="12"/>
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1128,9 +1140,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>40</v>
-      </c>
+      <c r="A15" s="12"/>
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1179,9 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="B16" s="13" t="s">
         <v>50</v>
       </c>
@@ -1189,11 +1201,13 @@
         <v>10</v>
       </c>
       <c r="H16" s="5">
-        <v>16</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="J16" s="5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="5" t="s">
@@ -1203,49 +1217,113 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="20" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="20" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="20" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="17" spans="1:13" ht="20" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="5">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5">
+        <v>16</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="5">
+        <v>64</v>
+      </c>
+      <c r="K17" s="5">
+        <v>74.13</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="20" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="5">
+        <v>64</v>
+      </c>
+      <c r="K18" s="5">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="20" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="5">
+        <v>16</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="5">
+        <v>64</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="20" customHeight="1">
+      <c r="L19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1259,7 +1337,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="20" customHeight="1">
+    <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1273,7 +1351,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="20" customHeight="1">
+    <row r="22" spans="1:13" ht="20" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1287,7 +1365,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="20" customHeight="1">
+    <row r="23" spans="1:13" ht="20" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1301,17 +1379,17 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="20" customHeight="1"/>
-    <row r="25" spans="1:12" ht="20" customHeight="1">
+    <row r="24" spans="1:13" ht="20" customHeight="1"/>
+    <row r="25" spans="1:13" ht="20" customHeight="1">
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="20" customHeight="1"/>
-    <row r="27" spans="1:12" ht="20" customHeight="1"/>
-    <row r="28" spans="1:12" ht="20" customHeight="1"/>
-    <row r="29" spans="1:12" ht="20" customHeight="1"/>
-    <row r="30" spans="1:12" ht="20" customHeight="1"/>
-    <row r="31" spans="1:12" ht="20" customHeight="1"/>
-    <row r="32" spans="1:12" ht="20" customHeight="1"/>
+    <row r="26" spans="1:13" ht="20" customHeight="1"/>
+    <row r="27" spans="1:13" ht="20" customHeight="1"/>
+    <row r="28" spans="1:13" ht="20" customHeight="1"/>
+    <row r="29" spans="1:13" ht="20" customHeight="1"/>
+    <row r="30" spans="1:13" ht="20" customHeight="1"/>
+    <row r="31" spans="1:13" ht="20" customHeight="1"/>
+    <row r="32" spans="1:13" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>
@@ -1321,6 +1399,9 @@
     <row r="39" ht="20" customHeight="1"/>
     <row r="40" ht="20" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C19:G19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6170E2C-A09C-D249-8432-637E0A9F6973}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55D7FB-F7F4-684B-802D-4EEADC7F6418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -193,6 +193,21 @@
   </si>
   <si>
     <t>se_resnet50</t>
+  </si>
+  <si>
+    <t>prm10s16x1_resnet50</t>
+  </si>
+  <si>
+    <t>60/mobile</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>temp1</t>
+  </si>
+  <si>
+    <t>prm10s4x16_resnet50</t>
   </si>
 </sst>
 </file>
@@ -234,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,22 +262,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -287,24 +299,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -713,7 +727,7 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1">
@@ -749,7 +763,7 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1">
@@ -760,7 +774,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -790,7 +804,7 @@
       <c r="J5" s="1">
         <v>64</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -798,7 +812,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
@@ -826,18 +840,18 @@
       <c r="J6" s="1">
         <v>64</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>76.22</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -865,7 +879,7 @@
       <c r="J7" s="1">
         <v>64</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>76.55</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -873,7 +887,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -891,7 +905,7 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1">
@@ -903,7 +917,7 @@
       <c r="J8" s="1">
         <v>64</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -911,78 +925,78 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5">
-        <v>16</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>64</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="5">
-        <v>16</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>64</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
@@ -990,7 +1004,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1017,7 +1031,7 @@
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>32</v>
       </c>
       <c r="K11" s="1"/>
@@ -1026,46 +1040,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9">
-        <v>16</v>
-      </c>
-      <c r="D12" s="9">
-        <v>4</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9">
-        <v>32</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="C12" s="8">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>32</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="10">
-        <v>32</v>
-      </c>
-      <c r="K12" s="9">
+      <c r="J12" s="9">
+        <v>32</v>
+      </c>
+      <c r="K12" s="8">
         <v>76.72</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1090,7 +1104,7 @@
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>32</v>
       </c>
       <c r="K13" s="1">
@@ -1104,7 +1118,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1129,7 +1143,7 @@
       <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>32</v>
       </c>
       <c r="K14" s="1">
@@ -1140,38 +1154,38 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="5">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="4">
+        <v>16</v>
+      </c>
+      <c r="D15" s="4">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5">
-        <v>32</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4">
+        <v>32</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="5">
-        <v>32</v>
-      </c>
-      <c r="K15" s="5">
+      <c r="J15" s="4">
+        <v>32</v>
+      </c>
+      <c r="K15" s="4">
         <v>76.739999999999995</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="M15" t="s">
@@ -1179,210 +1193,257 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" ht="20" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5">
-        <v>4</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
-        <v>32</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="C17" s="4">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4">
+        <v>32</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="5">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="5" t="s">
+      <c r="J17" s="4">
+        <v>32</v>
+      </c>
+      <c r="K17" s="4">
+        <v>74.98</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="20" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
+    <row r="18" spans="1:13" ht="20" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="5">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5">
-        <v>4</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="5">
-        <v>16</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J18" s="4">
         <v>64</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K18" s="4">
         <v>74.13</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="20" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5">
-        <v>4</v>
-      </c>
-      <c r="D18" s="5">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="5">
-        <v>16</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="5">
-        <v>64</v>
-      </c>
-      <c r="K18" s="5">
-        <v>73.989999999999995</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="M18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="4">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="4">
+        <v>64</v>
+      </c>
+      <c r="K19" s="4">
+        <v>73.989999999999995</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="20" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="4">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="4">
+        <v>64</v>
+      </c>
+      <c r="K20" s="4">
+        <v>74.97</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="20" customHeight="1">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="5">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="5">
-        <v>64</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="20" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" ht="20" customHeight="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="C21" s="4">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4">
+        <v>32</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="4">
+        <v>32</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="A22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="4">
+        <v>32</v>
+      </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="20" customHeight="1"/>
-    <row r="25" spans="1:13" ht="20" customHeight="1">
-      <c r="L25" s="4"/>
-    </row>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="20" customHeight="1">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1"/>
     <row r="26" spans="1:13" ht="20" customHeight="1"/>
     <row r="27" spans="1:13" ht="20" customHeight="1"/>
     <row r="28" spans="1:13" ht="20" customHeight="1"/>
@@ -1397,10 +1458,9 @@
     <row r="37" ht="20" customHeight="1"/>
     <row r="38" ht="20" customHeight="1"/>
     <row r="39" ht="20" customHeight="1"/>
-    <row r="40" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C55D7FB-F7F4-684B-802D-4EEADC7F6418}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E9B452-B701-AE47-B3ED-3A787719E7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -201,13 +201,22 @@
     <t>60/mobile</t>
   </si>
   <si>
-    <t>Mixed</t>
-  </si>
-  <si>
     <t>temp1</t>
   </si>
   <si>
     <t>prm10s4x16_resnet50</t>
+  </si>
+  <si>
+    <t>prm13_resnt50</t>
+  </si>
+  <si>
+    <t>based on prm9. Add mean to key value , mean+max</t>
+  </si>
+  <si>
+    <t>prm14_resnt50</t>
+  </si>
+  <si>
+    <t>based on prm9. Remove distance, mean replace max</t>
   </si>
 </sst>
 </file>
@@ -249,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,22 +277,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -303,22 +309,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,14 +642,14 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="38.5" customWidth="1"/>
-    <col min="13" max="13" width="41.33203125" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" customWidth="1"/>
+    <col min="13" max="13" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20" customHeight="1">
@@ -727,7 +733,7 @@
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="1">
@@ -763,7 +769,7 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1">
@@ -774,7 +780,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="20" customHeight="1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -804,7 +810,7 @@
       <c r="J5" s="1">
         <v>64</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -812,7 +818,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>48</v>
       </c>
@@ -840,18 +846,18 @@
       <c r="J6" s="1">
         <v>64</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>76.22</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1">
-      <c r="A7" s="6"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="J7" s="1">
         <v>64</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>76.55</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -887,7 +893,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -905,7 +911,7 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1">
@@ -917,7 +923,7 @@
       <c r="J8" s="1">
         <v>64</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -925,78 +931,78 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="20" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>16</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4">
-        <v>16</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="3">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>64</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="C10" s="3">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>16</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>64</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M10" t="s">
@@ -1004,7 +1010,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1031,7 +1037,7 @@
       <c r="I11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>32</v>
       </c>
       <c r="K11" s="1"/>
@@ -1040,46 +1046,46 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1">
-      <c r="A12" s="10"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8">
-        <v>32</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="C12" s="7">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>32</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="9">
-        <v>32</v>
-      </c>
-      <c r="K12" s="8">
+      <c r="J12" s="8">
+        <v>32</v>
+      </c>
+      <c r="K12" s="7">
         <v>76.72</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="20" customHeight="1">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1104,7 +1110,7 @@
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>32</v>
       </c>
       <c r="K13" s="1">
@@ -1118,7 +1124,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1143,7 +1149,7 @@
       <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>32</v>
       </c>
       <c r="K14" s="1">
@@ -1154,38 +1160,38 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4">
+      <c r="C15" s="3">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4">
-        <v>32</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>32</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="4">
-        <v>32</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="J15" s="3">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3">
         <v>76.739999999999995</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="M15" t="s">
@@ -1193,53 +1199,53 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4">
-        <v>32</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="3">
+        <v>32</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="4">
-        <v>32</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17" s="3">
+        <v>32</v>
+      </c>
+      <c r="K17" s="3">
         <v>74.98</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="M17" t="s">
@@ -1247,38 +1253,38 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="4">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="C18" s="3">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>64</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>74.13</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="M18" t="s">
@@ -1286,38 +1292,38 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>32</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4">
-        <v>16</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>64</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>73.989999999999995</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="M19" t="s">
@@ -1325,65 +1331,68 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="4">
-        <v>16</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="3">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>64</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="16">
         <v>74.97</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4">
-        <v>32</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>32</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="4">
-        <v>32</v>
-      </c>
-      <c r="L21" s="4" t="s">
+      <c r="J21" s="3">
+        <v>32</v>
+      </c>
+      <c r="K21" s="3">
+        <v>74.97</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M21" t="s">
@@ -1391,57 +1400,118 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>16</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="3">
+        <v>32</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="4">
-        <v>32</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:13" ht="20" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="3">
+        <v>32</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="3">
+        <v>32</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="20" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="M23" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1">
-      <c r="L24" s="3"/>
+      <c r="A24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="3">
+        <v>32</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="3">
+        <v>32</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1"/>
     <row r="26" spans="1:13" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E9B452-B701-AE47-B3ED-3A787719E7B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965836B5-2B9B-5240-837A-91B8F32E9876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -198,9 +198,6 @@
     <t>prm10s16x1_resnet50</t>
   </si>
   <si>
-    <t>60/mobile</t>
-  </si>
-  <si>
     <t>temp1</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>based on prm9. Remove distance, mean replace max</t>
+  </si>
+  <si>
+    <t>SGE</t>
+  </si>
+  <si>
+    <t>sge_resnet50</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -325,6 +328,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +648,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1359,9 +1365,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
@@ -1404,35 +1408,37 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3">
+        <v>32</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="3">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3">
-        <v>32</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>32</v>
+      </c>
+      <c r="K22" s="3">
+        <v>75.13</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="J22" s="3">
-        <v>32</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1">
@@ -1468,10 +1474,10 @@
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" t="s">
         <v>60</v>
-      </c>
-      <c r="M23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1">
@@ -1507,13 +1513,36 @@
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
         <v>62</v>
       </c>
-      <c r="M24" t="s">
+    </row>
+    <row r="25" spans="1:13" ht="20" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="20" customHeight="1"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="3">
+        <v>32</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="3">
+        <v>32</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="26" spans="1:13" ht="20" customHeight="1"/>
     <row r="27" spans="1:13" ht="20" customHeight="1"/>
     <row r="28" spans="1:13" ht="20" customHeight="1"/>
@@ -1529,8 +1558,9 @@
     <row r="38" ht="20" customHeight="1"/>
     <row r="39" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965836B5-2B9B-5240-837A-91B8F32E9876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FE1AA-EAAD-C948-B3DE-4A5CE14C30EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>sge_resnet50</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>prm15_resnet50</t>
+  </si>
+  <si>
+    <t>based on SGE, add max_value to GAP</t>
   </si>
 </sst>
 </file>
@@ -647,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1407,7 +1416,7 @@
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="3">
@@ -1520,7 +1529,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="17" t="s">
@@ -1543,7 +1552,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1"/>
+    <row r="26" spans="1:13" ht="20" customHeight="1">
+      <c r="B26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3">
+        <v>64</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="3">
+        <v>32</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="27" spans="1:13" ht="20" customHeight="1"/>
     <row r="28" spans="1:13" ht="20" customHeight="1"/>
     <row r="29" spans="1:13" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40FE1AA-EAAD-C948-B3DE-4A5CE14C30EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148404F6-DE74-CF43-882D-3E9584B2B39C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>based on SGE, add max_value to GAP</t>
+  </si>
+  <si>
+    <t>not good as sge</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1553,7 +1556,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="20" customHeight="1">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C26" t="s">
@@ -1579,6 +1582,9 @@
       </c>
       <c r="J26" s="3">
         <v>32</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>66</v>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148404F6-DE74-CF43-882D-3E9584B2B39C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4B06D-BD35-A341-B65B-2AFDBFA2A9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>not good as sge</t>
+  </si>
+  <si>
+    <t>based on SGE, (mean+max)/2, dotproduct/sqrt(c/g)</t>
+  </si>
+  <si>
+    <t>prm15_2_resnet50</t>
   </si>
 </sst>
 </file>
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1493,9 +1499,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
         <v>50</v>
       </c>
@@ -1593,7 +1597,45 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="20" customHeight="1"/>
+    <row r="27" spans="1:13" ht="20" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3">
+        <v>64</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="3">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="3">
+        <v>64</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M27" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="28" spans="1:13" ht="20" customHeight="1"/>
     <row r="29" spans="1:13" ht="20" customHeight="1"/>
     <row r="30" spans="1:13" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC4B06D-BD35-A341-B65B-2AFDBFA2A9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3DCF2-F1BC-A949-A572-C7254A44E451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>prm15_2_resnet50</t>
+  </si>
+  <si>
+    <t>prm17_resnet50</t>
+  </si>
+  <si>
+    <t>based on SGE, max replace mean, dotproduct/sqrt(c/g)</t>
+  </si>
+  <si>
+    <t>e45/74.4191 &gt;Line21</t>
   </si>
 </sst>
 </file>
@@ -666,7 +675,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1422,9 +1431,6 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B22" s="11" t="s">
         <v>50</v>
       </c>
@@ -1490,7 +1496,9 @@
       <c r="J23" s="3">
         <v>32</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="L23" s="3" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +1535,9 @@
       <c r="J24" s="3">
         <v>32</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>74.819999999999993</v>
+      </c>
       <c r="L24" s="3" t="s">
         <v>61</v>
       </c>
@@ -1536,6 +1546,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="20" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1649,44 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="20" customHeight="1"/>
+    <row r="28" spans="1:13" ht="20" customHeight="1">
+      <c r="A28" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3">
+        <v>64</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="3">
+        <v>16</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="3">
+        <v>64</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="29" spans="1:13" ht="20" customHeight="1"/>
     <row r="30" spans="1:13" ht="20" customHeight="1"/>
     <row r="31" spans="1:13" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C3DCF2-F1BC-A949-A572-C7254A44E451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403B178-7871-5243-95F0-099DB5987821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -335,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,6 +358,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1496,7 +1499,7 @@
       <c r="J23" s="3">
         <v>32</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="L23" s="3" t="s">
@@ -1545,75 +1548,51 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="20" customHeight="1">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:13" s="20" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="20" customHeight="1">
+      <c r="A26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="3">
-        <v>32</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="3">
-        <v>32</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="20" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="3">
+        <v>32</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32</v>
+      </c>
+      <c r="K26" s="3">
+        <v>77.5</v>
+      </c>
+      <c r="L26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="3">
-        <v>32</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="3">
-        <v>32</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M26" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1624,7 +1603,7 @@
         <v>64</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>16</v>
@@ -1633,20 +1612,22 @@
         <v>10</v>
       </c>
       <c r="H27" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="J27" s="3">
-        <v>64</v>
-      </c>
-      <c r="K27" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="L27" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="20" customHeight="1">
@@ -1675,20 +1656,62 @@
         <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J28" s="3">
         <v>64</v>
       </c>
+      <c r="K28" s="4"/>
       <c r="L28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="20" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3">
+        <v>64</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
+        <v>16</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="3">
+        <v>64</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M29" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="20" customHeight="1"/>
-    <row r="30" spans="1:13" ht="20" customHeight="1"/>
+    <row r="30" spans="1:13" ht="20" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="31" spans="1:13" ht="20" customHeight="1"/>
     <row r="32" spans="1:13" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
@@ -1698,10 +1721,11 @@
     <row r="37" ht="20" customHeight="1"/>
     <row r="38" ht="20" customHeight="1"/>
     <row r="39" ht="20" customHeight="1"/>
+    <row r="40" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403B178-7871-5243-95F0-099DB5987821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59CFED5-65F7-5C46-8E2B-ACBCAA78885E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>e45/74.4191 &gt;Line21</t>
+  </si>
+  <si>
+    <t>dotpoduct</t>
+  </si>
+  <si>
+    <t>prm19_resnet50</t>
   </si>
 </sst>
 </file>
@@ -351,16 +357,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +684,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1371,13 +1377,13 @@
       <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="3">
         <v>16</v>
       </c>
@@ -1387,7 +1393,7 @@
       <c r="J20" s="3">
         <v>64</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>74.97</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -1469,9 +1475,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
         <v>50</v>
       </c>
@@ -1548,34 +1552,32 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="20" customFormat="1" ht="20" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
+    <row r="25" spans="1:13" s="18" customFormat="1" ht="20" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:13" ht="20" customHeight="1">
-      <c r="A26" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
       <c r="H26" s="3">
         <v>32</v>
       </c>
@@ -1708,11 +1710,43 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="20" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="20" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="20" customHeight="1"/>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="32" spans="1:13" ht="20" customHeight="1"/>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59CFED5-65F7-5C46-8E2B-ACBCAA78885E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5678FC-E45A-EA46-95DE-8E9F57C84808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -147,9 +147,6 @@
     <t>fixed normalization to line2</t>
   </si>
   <si>
-    <t>Running</t>
-  </si>
-  <si>
     <t>prm8_resnet50</t>
   </si>
   <si>
@@ -253,6 +250,15 @@
   </si>
   <si>
     <t>prm19_resnet50</t>
+  </si>
+  <si>
+    <t>prm21_resnet50</t>
+  </si>
+  <si>
+    <t>SGE sim(gap)*a+sim(max)*b</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
@@ -341,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -367,6 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +691,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -713,7 +720,7 @@
     <row r="2" spans="1:13" ht="20" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -752,7 +759,7 @@
     <row r="3" spans="1:13" ht="20" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1">
         <v>16</v>
@@ -788,7 +795,7 @@
     <row r="4" spans="1:13" ht="20" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -826,7 +833,7 @@
         <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>16</v>
@@ -862,7 +869,7 @@
     <row r="6" spans="1:13" ht="20" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>16</v>
@@ -901,7 +908,7 @@
     <row r="7" spans="1:13" ht="20" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -939,7 +946,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -977,7 +984,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -1015,7 +1022,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="3">
         <v>16</v>
@@ -1056,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
@@ -1090,7 +1097,7 @@
     <row r="12" spans="1:13" ht="20" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7">
         <v>16</v>
@@ -1129,7 +1136,7 @@
     <row r="13" spans="1:13" ht="20" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
@@ -1159,16 +1166,16 @@
         <v>76.77</v>
       </c>
       <c r="L13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
         <v>41</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="20" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>8</v>
@@ -1198,13 +1205,13 @@
         <v>76.739999999999995</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="20" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>16</v>
@@ -1234,10 +1241,10 @@
         <v>76.739999999999995</v>
       </c>
       <c r="L15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
         <v>43</v>
-      </c>
-      <c r="M15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="20" customHeight="1">
@@ -1258,7 +1265,7 @@
     <row r="17" spans="1:13" ht="20" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
@@ -1288,16 +1295,16 @@
         <v>74.98</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
         <v>46</v>
-      </c>
-      <c r="M17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="3">
         <v>16</v>
@@ -1327,16 +1334,16 @@
         <v>74.13</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -1366,19 +1373,19 @@
         <v>73.989999999999995</v>
       </c>
       <c r="L19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" t="s">
         <v>52</v>
-      </c>
-      <c r="M19" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -1397,13 +1404,13 @@
         <v>74.97</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3">
         <v>16</v>
@@ -1433,15 +1440,15 @@
         <v>74.97</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1">
       <c r="B22" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
@@ -1462,7 +1469,7 @@
         <v>32</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" s="3">
         <v>32</v>
@@ -1471,13 +1478,13 @@
         <v>75.13</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3">
         <v>16</v>
@@ -1504,19 +1511,19 @@
         <v>32</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M23" t="s">
         <v>59</v>
-      </c>
-      <c r="M23" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="20" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3">
         <v>16</v>
@@ -1546,10 +1553,10 @@
         <v>74.819999999999993</v>
       </c>
       <c r="L24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M24" t="s">
         <v>61</v>
-      </c>
-      <c r="M24" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="18" customFormat="1" ht="20" customHeight="1">
@@ -1569,10 +1576,10 @@
     <row r="26" spans="1:13" ht="20" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
@@ -1591,15 +1598,15 @@
         <v>77.5</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="20" customHeight="1">
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
         <v>64</v>
@@ -1617,30 +1624,28 @@
         <v>32</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" s="3">
         <v>32</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M27" t="s">
         <v>66</v>
       </c>
-      <c r="M27" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="28" spans="1:13" ht="20" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A28" s="10"/>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
         <v>64</v>
@@ -1658,28 +1663,28 @@
         <v>16</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J28" s="3">
         <v>64</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="6">
+        <v>77.11</v>
+      </c>
       <c r="L28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="20" customHeight="1">
-      <c r="A29" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3">
         <v>64</v>
@@ -1702,22 +1707,23 @@
       <c r="J29" s="3">
         <v>64</v>
       </c>
+      <c r="K29">
+        <v>77.12</v>
+      </c>
       <c r="L29" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M29" t="s">
         <v>71</v>
-      </c>
-      <c r="M29" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="20" customHeight="1">
       <c r="A30" s="10"/>
     </row>
     <row r="31" spans="1:13" ht="20" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="A31" s="10"/>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -1726,7 +1732,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
@@ -1744,10 +1750,44 @@
         <v>48</v>
       </c>
       <c r="L31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="20" customHeight="1"/>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="33" ht="20" customHeight="1"/>
     <row r="34" ht="20" customHeight="1"/>
     <row r="35" ht="20" customHeight="1"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5678FC-E45A-EA46-95DE-8E9F57C84808}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED046F42-5607-9F4D-9400-4B4AF5B27246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>running</t>
+  </si>
+  <si>
+    <t>prm22_resnet50</t>
+  </si>
+  <si>
+    <t>prm23_resnet50</t>
+  </si>
+  <si>
+    <t>SGE (sim(gap)*a+sim(max)*b)*sig(e^(-Distance))</t>
+  </si>
+  <si>
+    <t>SGE (sim(gap)*a*Gaussian(Distance)+sim(max)*b)</t>
   </si>
 </sst>
 </file>
@@ -690,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1788,14 +1800,82 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" ht="20" customHeight="1"/>
-    <row r="34" ht="20" customHeight="1"/>
-    <row r="35" ht="20" customHeight="1"/>
-    <row r="36" ht="20" customHeight="1"/>
-    <row r="37" ht="20" customHeight="1"/>
-    <row r="38" ht="20" customHeight="1"/>
-    <row r="39" ht="20" customHeight="1"/>
-    <row r="40" ht="20" customHeight="1"/>
+    <row r="33" spans="1:13" ht="20" customHeight="1">
+      <c r="A33" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>64</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="20" customHeight="1">
+      <c r="A34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>32</v>
+      </c>
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>79</v>
+      </c>
+      <c r="M34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20" customHeight="1"/>
+    <row r="36" spans="1:13" ht="20" customHeight="1"/>
+    <row r="37" spans="1:13" ht="20" customHeight="1"/>
+    <row r="38" spans="1:13" ht="20" customHeight="1"/>
+    <row r="39" spans="1:13" ht="20" customHeight="1"/>
+    <row r="40" spans="1:13" ht="20" customHeight="1"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C20:G20"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED046F42-5607-9F4D-9400-4B4AF5B27246}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302C080-880B-0C4F-BF2E-016329B65A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>SGE (sim(gap)*a*Gaussian(Distance)+sim(max)*b)</t>
+  </si>
+  <si>
+    <t>MNAS</t>
+  </si>
+  <si>
+    <t>prm_mnasNet_1.0</t>
   </si>
 </sst>
 </file>
@@ -379,13 +385,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1396,13 +1402,13 @@
       <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="3">
         <v>16</v>
       </c>
@@ -1590,13 +1596,13 @@
       <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="3">
         <v>32</v>
       </c>
@@ -1766,7 +1772,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="20" customHeight="1">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B32" t="s">
@@ -1779,7 +1785,7 @@
         <v>73</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1788,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J32">
         <v>32</v>
@@ -1801,7 +1807,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20" customHeight="1">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
@@ -1814,7 +1820,7 @@
         <v>73</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1836,7 +1842,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="20" customHeight="1">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B34" t="s">
@@ -1849,7 +1855,7 @@
         <v>73</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1858,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J34">
         <v>32</v>
@@ -1870,16 +1876,46 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="20" customHeight="1"/>
+    <row r="35" spans="1:13" ht="20" customHeight="1">
+      <c r="B35" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35">
+        <v>128</v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="36" spans="1:13" ht="20" customHeight="1"/>
     <row r="37" spans="1:13" ht="20" customHeight="1"/>
     <row r="38" spans="1:13" ht="20" customHeight="1"/>
     <row r="39" spans="1:13" ht="20" customHeight="1"/>
     <row r="40" spans="1:13" ht="20" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0302C080-880B-0C4F-BF2E-016329B65A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68E649-9397-5844-857A-BDAF7FA64E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -258,9 +258,6 @@
     <t>SGE sim(gap)*a+sim(max)*b</t>
   </si>
   <si>
-    <t>running</t>
-  </si>
-  <si>
     <t>prm22_resnet50</t>
   </si>
   <si>
@@ -277,6 +274,30 @@
   </si>
   <si>
     <t>prm_mnasNet_1.0</t>
+  </si>
+  <si>
+    <t>MobileNetV2</t>
+  </si>
+  <si>
+    <t>prm_mobilenet_v2</t>
+  </si>
+  <si>
+    <t>old_resnet18</t>
+  </si>
+  <si>
+    <t>prm23_resnet50_g1</t>
+  </si>
+  <si>
+    <t>prm23_resnet50_g4</t>
+  </si>
+  <si>
+    <t>prm23_resnet50_g32</t>
+  </si>
+  <si>
+    <t>prm23_resnet50_g128</t>
+  </si>
+  <si>
+    <t>temp5</t>
   </si>
 </sst>
 </file>
@@ -706,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1772,9 +1793,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="20" customHeight="1">
-      <c r="A32" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>47</v>
       </c>
@@ -1807,9 +1826,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="20" customHeight="1">
-      <c r="A33" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -1835,16 +1852,14 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="20" customHeight="1">
-      <c r="A34" s="19" t="s">
-        <v>77</v>
-      </c>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>47</v>
       </c>
@@ -1870,15 +1885,15 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35">
@@ -1897,25 +1912,93 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35">
+        <v>64</v>
+      </c>
+      <c r="L35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="20" customHeight="1">
+      <c r="B36" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>32</v>
+      </c>
+      <c r="I36" t="s">
         <v>26</v>
       </c>
-      <c r="J35">
-        <v>128</v>
-      </c>
-      <c r="L35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="20" customHeight="1"/>
+      <c r="J36">
+        <v>64</v>
+      </c>
+      <c r="L36" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="37" spans="1:13" ht="20" customHeight="1"/>
     <row r="38" spans="1:13" ht="20" customHeight="1"/>
-    <row r="39" spans="1:13" ht="20" customHeight="1"/>
-    <row r="40" spans="1:13" ht="20" customHeight="1"/>
+    <row r="39" spans="1:13" ht="20" customHeight="1">
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+      <c r="L39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="20" customHeight="1">
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="I43" t="s">
+        <v>90</v>
+      </c>
+      <c r="L43" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C26:G26"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA68E649-9397-5844-857A-BDAF7FA64E53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C011E20D-A23C-A24C-AFD4-C7082AE9906A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -258,6 +258,9 @@
     <t>SGE sim(gap)*a+sim(max)*b</t>
   </si>
   <si>
+    <t>running</t>
+  </si>
+  <si>
     <t>prm22_resnet50</t>
   </si>
   <si>
@@ -298,6 +301,9 @@
   </si>
   <si>
     <t>temp5</t>
+  </si>
+  <si>
+    <t>prm23_resnet18 (for table 4 last row)</t>
   </si>
 </sst>
 </file>
@@ -727,16 +733,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" customWidth="1"/>
     <col min="13" max="13" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1852,10 +1858,10 @@
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="20" customHeight="1">
@@ -1885,15 +1891,15 @@
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35">
@@ -1918,12 +1924,12 @@
         <v>64</v>
       </c>
       <c r="L35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="20" customHeight="1">
       <c r="B36" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36">
@@ -1948,25 +1954,31 @@
         <v>64</v>
       </c>
       <c r="L36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="20" customHeight="1"/>
     <row r="38" spans="1:13" ht="20" customHeight="1"/>
     <row r="39" spans="1:13" ht="20" customHeight="1">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
       <c r="I39" t="s">
         <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="20" customHeight="1">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1974,7 +1986,7 @@
         <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -1982,15 +1994,26 @@
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" t="s">
         <v>90</v>
       </c>
-      <c r="L43" t="s">
-        <v>89</v>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C011E20D-A23C-A24C-AFD4-C7082AE9906A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991E454-CD85-AA41-8DAA-D7FA75E6BC86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -304,13 +304,16 @@
   </si>
   <si>
     <t>prm23_resnet18 (for table 4 last row)</t>
+  </si>
+  <si>
+    <t>prm23_ab1_resnet18(remove dis remove norm)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +346,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -392,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -419,6 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,16 +744,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="11" max="11" width="18.5" customWidth="1"/>
-    <col min="12" max="12" width="32.33203125" customWidth="1"/>
+    <col min="12" max="12" width="35.6640625" customWidth="1"/>
     <col min="13" max="13" width="51.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2016,6 +2027,14 @@
         <v>92</v>
       </c>
     </row>
+    <row r="47" spans="1:13">
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C20:G20"/>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1991E454-CD85-AA41-8DAA-D7FA75E6BC86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC2797-7D21-914B-B3C0-A278418BD48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t>old_resnet18</t>
   </si>
   <si>
-    <t>prm23_resnet50_g1</t>
-  </si>
-  <si>
     <t>prm23_resnet50_g4</t>
   </si>
   <si>
@@ -307,6 +304,9 @@
   </si>
   <si>
     <t>prm23_ab1_resnet18(remove dis remove norm)</t>
+  </si>
+  <si>
+    <t>prm23_resnet18_g1</t>
   </si>
 </sst>
 </file>
@@ -747,7 +747,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1989,7 +1989,7 @@
         <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -1997,7 +1997,7 @@
         <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2005,15 +2005,15 @@
         <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="I43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2024,7 +2024,7 @@
         <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2032,7 +2032,7 @@
         <v>30</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DC2797-7D21-914B-B3C0-A278418BD48B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6523B-4DBC-7D4B-B27E-16E6EB3575DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>prm23_resnet18_g1</t>
+  </si>
+  <si>
+    <t>prm23_resnet18_g4</t>
+  </si>
+  <si>
+    <t>70.5616/89.6635</t>
+  </si>
+  <si>
+    <t>70.5058/89.6305</t>
   </si>
 </sst>
 </file>
@@ -744,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2026,13 +2035,33 @@
       <c r="L46" t="s">
         <v>91</v>
       </c>
+      <c r="M46" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
       <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="L47" s="22" t="s">
         <v>92</v>
+      </c>
+      <c r="M47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>90</v>
+      </c>
+      <c r="L48" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/develop/PRM_comparsion.xlsx
+++ b/develop/PRM_comparsion.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melody/Code/NANet/develop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB6523B-4DBC-7D4B-B27E-16E6EB3575DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15793D78-0A75-4A4D-A1A1-EE5DB03C2CDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" activeTab="2" xr2:uid="{B3BB4FD7-8D27-024B-A700-38D589DD4097}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$F$1:$F$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$H$1:$H$16</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$F$1:$F$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$F$1:$F$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$F$1:$F$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$F$1:$F$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$F$1:$F$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="105">
   <si>
     <t>IJCAI2020</t>
   </si>
@@ -288,15 +299,6 @@
     <t>old_resnet18</t>
   </si>
   <si>
-    <t>prm23_resnet50_g4</t>
-  </si>
-  <si>
-    <t>prm23_resnet50_g32</t>
-  </si>
-  <si>
-    <t>prm23_resnet50_g128</t>
-  </si>
-  <si>
     <t>temp5</t>
   </si>
   <si>
@@ -316,6 +318,39 @@
   </si>
   <si>
     <t>70.5058/89.6305</t>
+  </si>
+  <si>
+    <t>NAN</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>cascade detection</t>
+  </si>
+  <si>
+    <t>prm23_resnet18_g128</t>
+  </si>
+  <si>
+    <t>prm23_resne18_g32</t>
+  </si>
+  <si>
+    <t>prm23_resnet18_g16</t>
+  </si>
+  <si>
+    <t>Stage 1</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Stage 4</t>
   </si>
 </sst>
 </file>
@@ -411,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,6 +474,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,6 +490,3929 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>top-1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$1:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.457999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.539299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.561599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.549700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9F2-C849-8989-8A3B00640637}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$1:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>68.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.963200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9F2-C849-8989-8A3B00640637}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="113370752"/>
+        <c:axId val="113372432"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="113370752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> of  heads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113372432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113372432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70.900000000000006"/>
+          <c:min val="68.900000000000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>top-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> accuracy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113370752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.60000000000000009"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.64300399950006248"/>
+          <c:y val="0.3169131377234562"/>
+          <c:w val="0.29422962754655668"/>
+          <c:h val="0.21335448740549223"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>top-5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$1:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>89.501900000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.536799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89.656099999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.663499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.573899999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63C0-A24D-972F-C2159C435A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>baseline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$1:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>88.590199999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.590199999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.590199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88.590199999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.590199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-63C0-A24D-972F-C2159C435A8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="152714464"/>
+        <c:axId val="176166224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="152714464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of heads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176166224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="176166224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="89.9"/>
+          <c:min val="88.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>top-5 accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152714464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.4"/>
+        <c:minorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66838858684331126"/>
+          <c:y val="0.3237539337433567"/>
+          <c:w val="0.29422962754655668"/>
+          <c:h val="0.21335448740549223"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$1:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.39510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1221</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34410000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2097</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.24859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.03E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stage1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$1:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Stage2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$1:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Stage3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$1:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Stage4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$1:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-227C-E14C-8C66-3BF7F8A1BB7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="96"/>
+        <c:axId val="152523600"/>
+        <c:axId val="156518176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="152523600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>PRM</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t> index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="156518176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="156518176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="152523600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>341630</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29020358-0CB9-D248-960B-C7D03F68DBA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589280</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A75CBD-9F85-4C4A-99A3-BF1BCD34033B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>189553</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>625522</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66343</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4EE8D5C-A65C-0646-A1DF-DDA5056B756D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -753,10 +4712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868B19E-AFD6-AC47-B1AB-8C6DFD803BD5}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1980,88 +5939,102 @@
     <row r="37" spans="1:13" ht="20" customHeight="1"/>
     <row r="38" spans="1:13" ht="20" customHeight="1"/>
     <row r="39" spans="1:13" ht="20" customHeight="1">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
       <c r="I39" t="s">
         <v>56</v>
       </c>
       <c r="L39" t="s">
         <v>86</v>
       </c>
+      <c r="M39" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="20" customHeight="1">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
       <c r="L40" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="M40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="I42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="I43" t="s">
-        <v>90</v>
-      </c>
       <c r="L43" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
       <c r="I46" t="s">
         <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" t="s">
-        <v>77</v>
-      </c>
       <c r="I47" t="s">
         <v>30</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" t="s">
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+      <c r="L48" t="s">
+        <v>91</v>
+      </c>
+      <c r="M48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="I48" t="s">
-        <v>90</v>
-      </c>
-      <c r="L48" t="s">
-        <v>94</v>
+      <c r="I50" t="s">
+        <v>56</v>
+      </c>
+      <c r="L50" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2074,4 +6047,1162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4615E50-5431-1D46-94FA-F445AD90A0C4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>70.418999999999997</v>
+      </c>
+      <c r="C1">
+        <v>89.501900000000006</v>
+      </c>
+      <c r="D1">
+        <v>68.963200000000001</v>
+      </c>
+      <c r="E1">
+        <v>88.590199999999996</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>70.457999999999998</v>
+      </c>
+      <c r="C2">
+        <v>89.536799999999999</v>
+      </c>
+      <c r="D2">
+        <v>68.963200000000001</v>
+      </c>
+      <c r="E2">
+        <v>88.590199999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>70.539299999999997</v>
+      </c>
+      <c r="C3">
+        <v>89.656099999999995</v>
+      </c>
+      <c r="D3">
+        <v>68.963200000000001</v>
+      </c>
+      <c r="E3">
+        <v>88.590199999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>64</v>
+      </c>
+      <c r="B4">
+        <v>70.561599999999999</v>
+      </c>
+      <c r="C4">
+        <v>89.663499999999999</v>
+      </c>
+      <c r="D4">
+        <v>68.963200000000001</v>
+      </c>
+      <c r="E4">
+        <v>88.590199999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5">
+        <v>70.549700000000001</v>
+      </c>
+      <c r="C5">
+        <v>89.573899999999995</v>
+      </c>
+      <c r="D5">
+        <v>68.963200000000001</v>
+      </c>
+      <c r="E5">
+        <v>88.590199999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F11BD7-7EF6-264F-8219-604DE6A1783C}">
+  <dimension ref="A1:H64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="134" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="23">
+        <v>0.11087783399999999</v>
+      </c>
+      <c r="B1">
+        <v>3.1766129999999997E-2</v>
+      </c>
+      <c r="C1">
+        <v>0.59305715999999997</v>
+      </c>
+      <c r="D1" s="23">
+        <v>9.4888499000000005E-3</v>
+      </c>
+      <c r="F1">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23">
+        <v>1.84431951E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.84870654000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.62653329999999996</v>
+      </c>
+      <c r="D2" s="23">
+        <v>6.1035953000000004E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="G2">
+        <v>-0.14779999999999999</v>
+      </c>
+      <c r="H2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="23">
+        <v>0.17503602800000001</v>
+      </c>
+      <c r="B3">
+        <v>1.371411E-2</v>
+      </c>
+      <c r="C3">
+        <v>2.2632099999999999E-2</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4.6063666E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.3609</v>
+      </c>
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="23">
+        <v>6.4308926500000002E-2</v>
+      </c>
+      <c r="B4">
+        <v>0.17197298999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.10250384</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.1288774E-2</v>
+      </c>
+      <c r="F4">
+        <v>0.1221</v>
+      </c>
+      <c r="G4">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="23">
+        <v>5.1592797000000003E-2</v>
+      </c>
+      <c r="B5">
+        <v>4.348101E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.88602840000000005</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.4768108E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="23">
+        <v>0.53637105200000001</v>
+      </c>
+      <c r="B6">
+        <v>0.42241117</v>
+      </c>
+      <c r="C6">
+        <v>5.8887399999999999E-3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>6.1817612000000001E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G6">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23">
+        <v>3.0857016099999999E-4</v>
+      </c>
+      <c r="B7">
+        <v>0.10488152000000001</v>
+      </c>
+      <c r="C7">
+        <v>9.8279000000000005E-3</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.058654E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.34410000000000002</v>
+      </c>
+      <c r="G7">
+        <v>-0.1366</v>
+      </c>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23">
+        <v>0.23787692199999999</v>
+      </c>
+      <c r="B8">
+        <v>0.36544130000000002</v>
+      </c>
+      <c r="C8">
+        <v>2.4763650000000002E-2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1.6152926000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>9.3100000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>-0.2482</v>
+      </c>
+      <c r="H8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="23">
+        <v>5.2167125000000002E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.45684200000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.46333790000000002</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2.0222237000000001E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="G9">
+        <v>-0.21260000000000001</v>
+      </c>
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="23">
+        <v>5.8562029199999997E-2</v>
+      </c>
+      <c r="B10">
+        <v>0.78297510000000003</v>
+      </c>
+      <c r="C10">
+        <v>5.8136300000000002E-3</v>
+      </c>
+      <c r="D10" s="23">
+        <v>7.6345600999999999E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.15809999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23">
+        <v>0.103347972</v>
+      </c>
+      <c r="B11">
+        <v>3.9351259999999999E-2</v>
+      </c>
+      <c r="C11">
+        <v>0.46891876999999998</v>
+      </c>
+      <c r="D11" s="23">
+        <v>6.1631756999999997E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.2097</v>
+      </c>
+      <c r="G11">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="23">
+        <v>1.8456503700000002E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.52916319999999994</v>
+      </c>
+      <c r="C12">
+        <v>2.1690199999999998E-3</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2.9996789999999999E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.1903</v>
+      </c>
+      <c r="G12">
+        <v>-1.4933000000000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="23">
+        <v>4.8627820800000001E-3</v>
+      </c>
+      <c r="B13">
+        <v>0.21492894000000001</v>
+      </c>
+      <c r="C13">
+        <v>2.442917E-2</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1.9630279E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="G13">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="23">
+        <v>0.230604634</v>
+      </c>
+      <c r="B14">
+        <v>0.32409152000000002</v>
+      </c>
+      <c r="C14">
+        <v>1.281087E-2</v>
+      </c>
+      <c r="D14" s="23">
+        <v>8.7190381999999993E-3</v>
+      </c>
+      <c r="F14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>-3.3500000000000002E-2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="23">
+        <v>0.12516239300000001</v>
+      </c>
+      <c r="B15">
+        <v>0.34214162999999997</v>
+      </c>
+      <c r="C15">
+        <v>0.43684894000000002</v>
+      </c>
+      <c r="D15" s="23">
+        <v>9.7989691000000007E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G15">
+        <v>-2.5100000000000001E-2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23">
+        <v>0.26336416600000001</v>
+      </c>
+      <c r="B16">
+        <v>0.14723665</v>
+      </c>
+      <c r="C16">
+        <v>0.28639466000000002</v>
+      </c>
+      <c r="D16" s="23">
+        <v>5.0677671000000004E-3</v>
+      </c>
+      <c r="F16">
+        <v>1.03E-2</v>
+      </c>
+      <c r="G16">
+        <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="23">
+        <v>0.75606656100000003</v>
+      </c>
+      <c r="B17">
+        <v>0.22564962999999999</v>
+      </c>
+      <c r="C17">
+        <v>6.119513E-2</v>
+      </c>
+      <c r="D17" s="23">
+        <v>8.7503641999999993E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="23">
+        <v>3.2437287299999999E-2</v>
+      </c>
+      <c r="B18">
+        <v>9.6691460000000007E-2</v>
+      </c>
+      <c r="C18">
+        <v>6.5352640000000004E-2</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1.6742435999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="23">
+        <v>0.62644308800000004</v>
+      </c>
+      <c r="B19">
+        <v>2.4611870000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.13778116000000001</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1.1307388999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="23">
+        <v>2.2457150700000001E-2</v>
+      </c>
+      <c r="B20">
+        <v>0.44361194999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.48136889999999999</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1.0122917E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="23">
+        <v>6.1323039199999999E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.41144325999999998</v>
+      </c>
+      <c r="C21">
+        <v>1.6102120000000001E-2</v>
+      </c>
+      <c r="D21" s="23">
+        <v>1.5757166E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="23">
+        <v>8.4183700400000006E-2</v>
+      </c>
+      <c r="B22">
+        <v>0.21667267000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.39510859999999998</v>
+      </c>
+      <c r="D22" s="23">
+        <v>1.0022981E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="23">
+        <v>8.5029117799999998E-2</v>
+      </c>
+      <c r="B23">
+        <v>0.43773975999999998</v>
+      </c>
+      <c r="C23">
+        <v>1.2450330000000001E-2</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1.9879581E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="23">
+        <v>0.62505662399999995</v>
+      </c>
+      <c r="B24">
+        <v>0.34214154000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.12876502000000001</v>
+      </c>
+      <c r="D24" s="23">
+        <v>2.2828853E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="23">
+        <v>1.0849584799999999E-2</v>
+      </c>
+      <c r="B25">
+        <v>0.25364484999999998</v>
+      </c>
+      <c r="C25">
+        <v>0.13395166</v>
+      </c>
+      <c r="D25" s="23">
+        <v>1.7142421000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="23">
+        <v>0.23181872100000001</v>
+      </c>
+      <c r="B26">
+        <v>0.11781505</v>
+      </c>
+      <c r="C26">
+        <v>1.71119E-3</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2.6994444999999998E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="23">
+        <v>7.56809488E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.22836843000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.74362439999999996</v>
+      </c>
+      <c r="D27" s="23">
+        <v>1.4038847E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="23">
+        <v>0.32447513900000002</v>
+      </c>
+      <c r="B28">
+        <v>0.35282984000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.36868849999999997</v>
+      </c>
+      <c r="D28" s="23">
+        <v>1.0160683E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="23">
+        <v>0.23599439899999999</v>
+      </c>
+      <c r="B29">
+        <v>0.28158146000000001</v>
+      </c>
+      <c r="C29">
+        <v>2.6955219999999998E-2</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1.5064875E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="23">
+        <v>0.58297616200000002</v>
+      </c>
+      <c r="B30">
+        <v>0.34413558</v>
+      </c>
+      <c r="C30">
+        <v>1.178801E-2</v>
+      </c>
+      <c r="D30" s="23">
+        <v>3.5850542999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="23">
+        <v>9.8465025400000003E-2</v>
+      </c>
+      <c r="B31">
+        <v>8.2439219999999994E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.0537200000000002E-2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>3.4660324999999999E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="23">
+        <v>2.3604149000000001E-2</v>
+      </c>
+      <c r="B32">
+        <v>0.21106683000000001</v>
+      </c>
+      <c r="C32">
+        <v>3.7753729999999999E-2</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1.1230479999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="23">
+        <v>0.57188308200000004</v>
+      </c>
+      <c r="B33">
+        <v>0.44422892000000003</v>
+      </c>
+      <c r="C33">
+        <v>0.29283759999999998</v>
+      </c>
+      <c r="D33" s="23">
+        <v>4.9590883999999999E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="23">
+        <v>0.14707458000000001</v>
+      </c>
+      <c r="B34">
+        <v>3.7812999999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.71776329999999999</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1.0965477E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="23">
+        <v>0.94933950899999997</v>
+      </c>
+      <c r="B35">
+        <v>0.38893905000000001</v>
+      </c>
+      <c r="C35">
+        <v>9.5565919999999999E-2</v>
+      </c>
+      <c r="D35" s="23">
+        <v>1.8114826000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="23">
+        <v>0.23876486699999999</v>
+      </c>
+      <c r="B36">
+        <v>0.38359806000000002</v>
+      </c>
+      <c r="C36">
+        <v>0.17722018</v>
+      </c>
+      <c r="D36" s="23">
+        <v>1.4030971E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="23">
+        <v>0.20143845699999999</v>
+      </c>
+      <c r="B37">
+        <v>0.26315755000000002</v>
+      </c>
+      <c r="C37">
+        <v>5.3270369999999997E-2</v>
+      </c>
+      <c r="D37" s="23">
+        <v>1.1297273E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="23">
+        <v>0.29732745900000002</v>
+      </c>
+      <c r="B38">
+        <v>0.30210673999999998</v>
+      </c>
+      <c r="C38">
+        <v>0.23706152</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2.1195163999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="23">
+        <v>0.43832045800000002</v>
+      </c>
+      <c r="B39">
+        <v>0.28794059999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.4463410000000001E-2</v>
+      </c>
+      <c r="D39" s="23">
+        <v>6.5537407000000004E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="23">
+        <v>2.1858749899999998E-2</v>
+      </c>
+      <c r="B40">
+        <v>0.21813405999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.58846719999999997</v>
+      </c>
+      <c r="D40" s="23">
+        <v>6.6550997999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="23">
+        <v>6.2891356600000003E-2</v>
+      </c>
+      <c r="B41">
+        <v>0.37068430000000002</v>
+      </c>
+      <c r="C41">
+        <v>0.67784922999999997</v>
+      </c>
+      <c r="D41" s="23">
+        <v>7.8510092999999996E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="23">
+        <v>0.21318705399999999</v>
+      </c>
+      <c r="B42">
+        <v>0.41886967000000003</v>
+      </c>
+      <c r="C42">
+        <v>7.6331100000000002E-3</v>
+      </c>
+      <c r="D42" s="23">
+        <v>9.3968730999999998E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="23">
+        <v>0.32647153699999998</v>
+      </c>
+      <c r="B43">
+        <v>0.98879649999999997</v>
+      </c>
+      <c r="C43">
+        <v>0.71461710000000001</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1.5310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="23">
+        <v>3.8560207899999997E-2</v>
+      </c>
+      <c r="B44">
+        <v>0.15927450000000001</v>
+      </c>
+      <c r="C44">
+        <v>0.47750716999999998</v>
+      </c>
+      <c r="D44" s="23">
+        <v>7.0217177E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="23">
+        <v>0.455094993</v>
+      </c>
+      <c r="B45">
+        <v>0.46304718</v>
+      </c>
+      <c r="C45">
+        <v>0.13039775000000001</v>
+      </c>
+      <c r="D45" s="23">
+        <v>9.7540505E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="23">
+        <v>6.6246896999999999E-2</v>
+      </c>
+      <c r="B46">
+        <v>0.41010160000000001</v>
+      </c>
+      <c r="C46">
+        <v>3.068771E-2</v>
+      </c>
+      <c r="D46" s="23">
+        <v>3.9949310000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="23">
+        <v>4.1534438700000002E-2</v>
+      </c>
+      <c r="B47">
+        <v>0.38832813999999999</v>
+      </c>
+      <c r="C47">
+        <v>0.41837835000000001</v>
+      </c>
+      <c r="D47" s="23">
+        <v>6.2179808E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="23">
+        <v>8.9131168999999996E-2</v>
+      </c>
+      <c r="B48">
+        <v>0.85935866999999999</v>
+      </c>
+      <c r="C48">
+        <v>0.36164644000000001</v>
+      </c>
+      <c r="D48" s="23">
+        <v>3.8454952000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="23">
+        <v>1.8457956599999999E-2</v>
+      </c>
+      <c r="B49">
+        <v>0.50766235999999998</v>
+      </c>
+      <c r="C49">
+        <v>0.62921125</v>
+      </c>
+      <c r="D49" s="23">
+        <v>1.3912518E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="23">
+        <v>1.7346107599999999E-3</v>
+      </c>
+      <c r="B50">
+        <v>0.86920949999999997</v>
+      </c>
+      <c r="C50">
+        <v>7.6634709999999995E-2</v>
+      </c>
+      <c r="D50" s="23">
+        <v>1.6135831999999999E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="23">
+        <v>0.39118969399999998</v>
+      </c>
+      <c r="B51">
+        <v>0.2081036</v>
+      </c>
+      <c r="C51">
+        <v>0.56315280000000001</v>
+      </c>
+      <c r="D51" s="23">
+        <v>2.5659372999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="23">
+        <v>0.59853291500000005</v>
+      </c>
+      <c r="B52">
+        <v>0.21037634</v>
+      </c>
+      <c r="C52">
+        <v>0.32927381999999999</v>
+      </c>
+      <c r="D52" s="23">
+        <v>1.2719490999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="23">
+        <v>0.111427307</v>
+      </c>
+      <c r="B53">
+        <v>0.41568129999999998</v>
+      </c>
+      <c r="C53">
+        <v>0.76009340000000003</v>
+      </c>
+      <c r="D53" s="23">
+        <v>6.8240603000000004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="23">
+        <v>2.1568466899999999E-3</v>
+      </c>
+      <c r="B54">
+        <v>0.94366249999999996</v>
+      </c>
+      <c r="C54">
+        <v>6.610531E-2</v>
+      </c>
+      <c r="D54" s="23">
+        <v>1.4152578000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="23">
+        <v>0.347719312</v>
+      </c>
+      <c r="B55">
+        <v>0.13005269999999999</v>
+      </c>
+      <c r="C55">
+        <v>1.2877039999999999E-2</v>
+      </c>
+      <c r="D55" s="23">
+        <v>9.9067315E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="23">
+        <v>0.80527043300000001</v>
+      </c>
+      <c r="B56">
+        <v>0.592669</v>
+      </c>
+      <c r="C56">
+        <v>0.11802389000000001</v>
+      </c>
+      <c r="D56" s="23">
+        <v>5.9888101999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="23">
+        <v>9.9429339199999994E-2</v>
+      </c>
+      <c r="B57">
+        <v>0.28637891999999998</v>
+      </c>
+      <c r="C57">
+        <v>6.5278409999999995E-2</v>
+      </c>
+      <c r="D57" s="23">
+        <v>1.953328E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="23">
+        <v>0.40930932799999997</v>
+      </c>
+      <c r="B58">
+        <v>0.74104639999999999</v>
+      </c>
+      <c r="C58">
+        <v>0.77120507000000005</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1.8764271999999999E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="23">
+        <v>0.29883199900000001</v>
+      </c>
+      <c r="B59">
+        <v>0.46470349999999999</v>
+      </c>
+      <c r="C59">
+        <v>0.10834721999999999</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2.9652007999999999E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="23">
+        <v>0.30174922900000001</v>
+      </c>
+      <c r="B60">
+        <v>9.6471290000000001E-2</v>
+      </c>
+      <c r="C60">
+        <v>0.22083770999999999</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1.9822454E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="23">
+        <v>0.61573928600000005</v>
+      </c>
+      <c r="B61">
+        <v>7.6851879999999997E-2</v>
+      </c>
+      <c r="C61">
+        <v>0.21931468000000001</v>
+      </c>
+      <c r="D61" s="23">
+        <v>3.0666109999999999E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="23">
+        <v>0.66447079200000003</v>
+      </c>
+      <c r="B62">
+        <v>0.37998393000000003</v>
+      </c>
+      <c r="C62">
+        <v>6.6569799999999998E-2</v>
+      </c>
+      <c r="D62" s="23">
+        <v>5.7184923999999996E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="23">
+        <v>2.36944202E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.34066173</v>
+      </c>
+      <c r="C63">
+        <v>3.2084889999999998E-2</v>
+      </c>
+      <c r="D63" s="23">
+        <v>1.3450701999999999E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="23">
+        <v>4.3452759299999998E-3</v>
+      </c>
+      <c r="B64">
+        <v>0.46754216999999998</v>
+      </c>
+      <c r="C64">
+        <v>0.22984863999999999</v>
+      </c>
+      <c r="D64" s="23">
+        <v>3.9642821E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>